--- a/biology/Médecine/1167_en_santé_et_médecine/1167_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1167_en_santé_et_médecine/1167_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1167_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1167_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1167_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1167_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,13 +518,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Début de la construction de l'hôpital Notre-Dame de Laon[1].
-Fondation de l'université d'Oxford, où la médecine sera enseignée à partir du XIIIe siècle[2].
-Vers 1167 : « Un chevalier bourguignon marié et fixé en Terre sainte, Calon d'Avallon, […] donne à l'hôpital d'Acre, dépendant de celui de Jérusalem, un domaine situé dans son pays d'origine », acte qui peut être tenu pour fondateur de l'hôpital de Pontaubert, en Bourgogne[3],[4].
-1167 ou 1168 : Raoul II, comte de Vermandois, né vers 1147 et atteint de la lèpre, meurt sans enfants et « ses provinces passent aux mains de Philippe d'Alsace », comte de Flandre[5].
-1167-1181 : institution d'une léproserie à Chièvres, en Hainaut, par Ève, dame du lieu[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Début de la construction de l'hôpital Notre-Dame de Laon.
+Fondation de l'université d'Oxford, où la médecine sera enseignée à partir du XIIIe siècle.
+Vers 1167 : « Un chevalier bourguignon marié et fixé en Terre sainte, Calon d'Avallon, […] donne à l'hôpital d'Acre, dépendant de celui de Jérusalem, un domaine situé dans son pays d'origine », acte qui peut être tenu pour fondateur de l'hôpital de Pontaubert, en Bourgogne,.
+1167 ou 1168 : Raoul II, comte de Vermandois, né vers 1147 et atteint de la lèpre, meurt sans enfants et « ses provinces passent aux mains de Philippe d'Alsace », comte de Flandre.
+1167-1181 : institution d'une léproserie à Chièvres, en Hainaut, par Ève, dame du lieu.</t>
         </is>
       </c>
     </row>
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1167_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1167_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,9 +554,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1167[7] (1165 ou 1174[8]) : Abraham ibn Ezra (né en 1092 ou 1093[7] (1099 ou 1119[8]) , rabbin espagnol, philosophe, astronome, poète, médecin, philologue et cabaliste, auteur de nombreux ouvrages, dont un d'astrologie médicale, Sefer ha-Me'orot, traduit en latin sous le titre De luminaribus et diebus criticis, « le seul qui ait rapport à la  médecine », et qui sera imprimé pour la première fois à Lyon en 1496[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1167 (1165 ou 1174) : Abraham ibn Ezra (né en 1092 ou 1093 (1099 ou 1119) , rabbin espagnol, philosophe, astronome, poète, médecin, philologue et cabaliste, auteur de nombreux ouvrages, dont un d'astrologie médicale, Sefer ha-Me'orot, traduit en latin sous le titre De luminaribus et diebus criticis, « le seul qui ait rapport à la  médecine », et qui sera imprimé pour la première fois à Lyon en 1496.
 </t>
         </is>
       </c>
